--- a/medicine/Maladie à coronavirus 2019/KIMI_(film)/KIMI_(film).xlsx
+++ b/medicine/Maladie à coronavirus 2019/KIMI_(film)/KIMI_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">KIMI est un film américain réalisé par Steven Soderbergh et sorti en 2022. Il est disponible aux États-Unis sur la plateforme HBO Max.
 </t>
@@ -511,10 +523,12 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Seattle, durant la pandémie de Covid-19, Angela Childs est en télétravail. Elle est employée par Amygdala, une entreprise technologique dont le nouveau produit est une enceinte connectée appelée Kimi. L'entreprise annonce alors son introduction en bourse, ce qui fera la richesse du PDG Bradley Hasling.
-Alors qu'elle examine des flux de données audio enregistrées par Kimi, Angela y découvre les preuves d'un crime violent. Elle fait alors remonter l'information à sa hiérarchie. Mais face à leur inaction, elle décide de retrouver elle-même l'auteur du meurtre. Pour cela, elle doit sortir de chez elle... malgré son agoraphobie exacerbée par la pandémie[1],[2].
+Alors qu'elle examine des flux de données audio enregistrées par Kimi, Angela y découvre les preuves d'un crime violent. Elle fait alors remonter l'information à sa hiérarchie. Mais face à leur inaction, elle décide de retrouver elle-même l'auteur du meurtre. Pour cela, elle doit sortir de chez elle... malgré son agoraphobie exacerbée par la pandémie,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : KIMI
@@ -553,8 +569,8 @@
 Direction artistique : Michael Manson
 Décors : Philip Messina
 Costumes : Ellen Mirojnick
-Photographie : Steven Soderbergh (crédité sous le pseudonyme de Peter Andrews[3])
-Montage : Steven Soderbergh (crédité sous le pseudonyme de Mary Ann Bernard[3])
+Photographie : Steven Soderbergh (crédité sous le pseudonyme de Peter Andrews)
+Montage : Steven Soderbergh (crédité sous le pseudonyme de Mary Ann Bernard)
 Production : David Koepp et Michael Polaire
 Sociétés de production : New Line Cinema et Warner Bros.
 Société de distribution : HBO Max (États-Unis)
@@ -564,7 +580,7 @@
 Format : couleur
 Genre : thriller, drame, policier, crime
 Durée : 89 minutes
-Dates de sortie[4] :
+Dates de sortie :
 États-Unis : 10 février 2022 (sur HBO Max)
 France : 9 mars 2022 (vidéo à la demande)</t>
         </is>
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Zoë Kravitz (VF : Lutèce Ragueneau) : Angela Childs
 Rita Wilson (VF : Anne Deleuze) : Natalie Chowdhury
@@ -639,11 +657,13 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En février 2021, il est annoncé que Steven Soderbergh va réaliser un film produit par New Line Cinema, intitulé KIMI et avec Zoë Kravitz en tête d'affiche[5]. Le film sera diffusé sur HBO Max. Il s'agit du 3e film consécutif du réalisateur diffusé sur cette plateforme, après La Grande Traversée (2020) et No Sudden Move (2021).
-En mars 2021, Byron Bowers, Jaime Camil, Jacob Vargas et Derek DelGaudio rejoignent la distribution[6],[7],[8],[9]. En avril 2021, Erika Christensen et Devin Ratray sont également confirmés[10],[11].
-Le tournage débute en avril 2021[12],[13]. Il a lieu à Los Angeles, principalement pour des scènes en intérieurs[14]. En mai, l'équipe se rend à Seattle pour des plans en extérieur[2],[14]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En février 2021, il est annoncé que Steven Soderbergh va réaliser un film produit par New Line Cinema, intitulé KIMI et avec Zoë Kravitz en tête d'affiche. Le film sera diffusé sur HBO Max. Il s'agit du 3e film consécutif du réalisateur diffusé sur cette plateforme, après La Grande Traversée (2020) et No Sudden Move (2021).
+En mars 2021, Byron Bowers, Jaime Camil, Jacob Vargas et Derek DelGaudio rejoignent la distribution. En avril 2021, Erika Christensen et Devin Ratray sont également confirmés,.
+Le tournage débute en avril 2021,. Il a lieu à Los Angeles, principalement pour des scènes en intérieurs. En mai, l'équipe se rend à Seattle pour des plans en extérieur,. 
 Avec notamment des extraits musicaux de Sabotage des Beastie Boys et Connection d'Elastica.
 </t>
         </is>
@@ -673,9 +693,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film reçoit des critiques globalement positives. Sur l'agrégateur américain Rotten Tomatoes, il récolte 92% d'opinions favorables pour 103 critiques et une note moyenne de 7,5⁄10. Le consensus suivant résume les critiques compilées par le site : « Un thriller confiné à la maison avec une touche du XXIe siècle, KIMI montre le réalisateur Steven Soderbergh sous une forme qui plaira à la foule – grâce en grande partie à une performance exceptionnelle de Zoë Kravitz[15]. ». Sur Metacritic, il obtient une note moyenne de 78⁄100 pour 25 critiques[16].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques globalement positives. Sur l'agrégateur américain Rotten Tomatoes, il récolte 92% d'opinions favorables pour 103 critiques et une note moyenne de 7,5⁄10. Le consensus suivant résume les critiques compilées par le site : « Un thriller confiné à la maison avec une touche du XXIe siècle, KIMI montre le réalisateur Steven Soderbergh sous une forme qui plaira à la foule – grâce en grande partie à une performance exceptionnelle de Zoë Kravitz. ». Sur Metacritic, il obtient une note moyenne de 78⁄100 pour 25 critiques.
 </t>
         </is>
       </c>
